--- a/Assets/Tables/gacha.xlsx
+++ b/Assets/Tables/gacha.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\ProjectM\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D144248-FEE4-46B0-83BC-7A47B05DE58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568FCCAF-C725-45D9-830E-231F6B32C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="450" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gacha" sheetId="1" r:id="rId1"/>
-    <sheet name="~확률" sheetId="4" r:id="rId2"/>
+    <sheet name="gacha" sheetId="1" r:id="rId1"/>
+    <sheet name="_확률" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,45 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>CashType</t>
-  </si>
-  <si>
-    <t>CashValue</t>
-  </si>
-  <si>
-    <t>CouponKey</t>
-  </si>
-  <si>
-    <t>CouponMileageStack</t>
-  </si>
-  <si>
-    <t>RandomBoxKey</t>
-  </si>
-  <si>
-    <t>MileageKey</t>
-  </si>
-  <si>
-    <t>MileageValue</t>
-  </si>
-  <si>
-    <t>AdvantageMileageValue</t>
-  </si>
-  <si>
-    <t>FreeGachaType</t>
-  </si>
-  <si>
-    <t>FreeGachaValue</t>
-  </si>
-  <si>
     <t>통상 가챠</t>
   </si>
   <si>
@@ -86,6 +47,58 @@
   </si>
   <si>
     <t>비중값</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couponKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>couponMileageStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomBoxKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileageKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mileageValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advantageMileageValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeGachaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeGachaValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -415,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,43 +451,43 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -482,19 +495,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -523,19 +536,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -570,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACE5B8-23C3-488B-B50E-6BEB56FB005C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -578,16 +591,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1">
         <v>1000000</v>
@@ -715,16 +728,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>1000000</v>

--- a/Assets/Tables/gacha.xlsx
+++ b/Assets/Tables/gacha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568FCCAF-C725-45D9-830E-231F6B32C6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB97A13-3089-440F-A2B1-1C105367F76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
